--- a/src/note/dp/InterleavingString97/interleavingString.xlsx
+++ b/src/note/dp/InterleavingString97/interleavingString.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxiao/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxiao/intellijProject/LeecodeProblemByJava/src/note/dp/InterleavingString97/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>a</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>pathTable[i][j] represents whether we can form s3.substring(0, i+j) using the first s1.substring(0, i) and s2.substring(0, j)</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -470,6 +476,9 @@
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -483,6 +492,9 @@
       </c>
       <c r="D6" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
